--- a/biology/Botanique/Woodsia_alpina/Woodsia_alpina.xlsx
+++ b/biology/Botanique/Woodsia_alpina/Woodsia_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Woodsia alpina, la Woodsie des Alpes ou Woodsie alpine[1], est une espèce de fougères de la famille des Woodsiaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Woodsia alpina, la Woodsie des Alpes ou Woodsie alpine, est une espèce de fougères de la famille des Woodsiaceae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acrostichum alpinum Bolton
 Acrostichum hyperboreum Lilj.
-Acrostichum ilvense L. [1754]
+Acrostichum ilvense L. 
 Ceterach alpinum (Bolton) DC.
 Polypodium alpinum (Bolton) With.
 Polypodium hyperboreum (Lilj.) Sw.
@@ -551,7 +565,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Petite fougère (5 à 6 cm de haut).
 Plutôt pâle.
@@ -583,9 +599,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rocailles siliceuses, altitude 1 700 à 2 600 mètres[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rocailles siliceuses, altitude 1 700 à 2 600 mètres.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>France : Alpes, Auvergne (Cantal), Pyrénées.
 Arctique : Scandinavie, plus rare en Écosse et en Islande.</t>
